--- a/results/WN/WN-simple-quals-analysis.xlsx
+++ b/results/WN/WN-simple-quals-analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="HITResultsFor2L0XKO2L92HEGTL38S" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Tue Jun 12 23:49:56 PDT 2012</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Antitrust legislation</t>
+  </si>
+  <si>
+    <t>α=0.1</t>
+  </si>
+  <si>
+    <t>α=0.05</t>
   </si>
 </sst>
 </file>
@@ -547,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK33"/>
+  <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2:AK30"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4478,14 +4484,30 @@
         <f>COUNTIF(D30:AI31,"&lt;5")</f>
         <v>0</v>
       </c>
+      <c r="S32" t="s">
+        <v>44</v>
+      </c>
       <c r="T32" s="1">
         <f>COUNTIF(T30:AI30,"&gt;=18")</f>
         <v>16</v>
       </c>
+      <c r="AJ32">
+        <f>AVERAGE(AJ2:AJ29)</f>
+        <v>15.071428571428571</v>
+      </c>
     </row>
-    <row r="33" spans="20:20">
+    <row r="33" spans="19:20">
       <c r="T33" s="1">
         <f>COUNTIF(T30:AI30,"&gt;=22")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="19:20">
+      <c r="S34" t="s">
+        <v>45</v>
+      </c>
+      <c r="T34">
+        <f>COUNTIF(T30:AI30,"&gt;=19")</f>
         <v>16</v>
       </c>
     </row>
